--- a/Übersicht levelabhängiger Variablen.xlsx
+++ b/Übersicht levelabhängiger Variablen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Level</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>*: in Formel berechnet, nur zur Übersicht</t>
+  </si>
+  <si>
+    <t>Blickrichtung</t>
+  </si>
+  <si>
+    <t>unten (down 3)</t>
   </si>
 </sst>
 </file>
@@ -384,20 +390,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,102 +414,108 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4">
         <f t="shared" ref="A4:A32" si="0">A3+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>15</v>
